--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7641413456774649</v>
+        <v>0.9029553333333333</v>
       </c>
       <c r="H2">
-        <v>0.7641413456774649</v>
+        <v>2.708866</v>
       </c>
       <c r="I2">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="J2">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.88707748044849</v>
+        <v>9.918858999999999</v>
       </c>
       <c r="N2">
-        <v>7.88707748044849</v>
+        <v>29.756577</v>
       </c>
       <c r="O2">
-        <v>0.1343139536328738</v>
+        <v>0.160764128269069</v>
       </c>
       <c r="P2">
-        <v>0.1343139536328738</v>
+        <v>0.160764128269069</v>
       </c>
       <c r="Q2">
-        <v>6.026841999372339</v>
+        <v>8.956286634631333</v>
       </c>
       <c r="R2">
-        <v>6.026841999372339</v>
+        <v>80.606579711682</v>
       </c>
       <c r="S2">
-        <v>0.04897845266505704</v>
+        <v>0.03783115021012002</v>
       </c>
       <c r="T2">
-        <v>0.04897845266505704</v>
+        <v>0.03783115021012003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7641413456774649</v>
+        <v>0.9029553333333333</v>
       </c>
       <c r="H3">
-        <v>0.7641413456774649</v>
+        <v>2.708866</v>
       </c>
       <c r="I3">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="J3">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.1849552455542</v>
+        <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>29.1849552455542</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.4970087761082777</v>
+        <v>0.47332838627826</v>
       </c>
       <c r="P3">
-        <v>0.4970087761082777</v>
+        <v>0.4733283862782601</v>
       </c>
       <c r="Q3">
-        <v>22.30143097487437</v>
+        <v>26.36946901935978</v>
       </c>
       <c r="R3">
-        <v>22.30143097487437</v>
+        <v>237.325221174238</v>
       </c>
       <c r="S3">
-        <v>0.1812374675625605</v>
+        <v>0.1113840349386685</v>
       </c>
       <c r="T3">
-        <v>0.1812374675625605</v>
+        <v>0.1113840349386685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7641413456774649</v>
+        <v>0.9029553333333333</v>
       </c>
       <c r="H4">
-        <v>0.7641413456774649</v>
+        <v>2.708866</v>
       </c>
       <c r="I4">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="J4">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.6491743200395</v>
+        <v>22.575837</v>
       </c>
       <c r="N4">
-        <v>21.6491743200395</v>
+        <v>67.72751099999999</v>
       </c>
       <c r="O4">
-        <v>0.3686772702588486</v>
+        <v>0.3659074854526709</v>
       </c>
       <c r="P4">
-        <v>0.3686772702588486</v>
+        <v>0.3659074854526709</v>
       </c>
       <c r="Q4">
-        <v>16.543029197721</v>
+        <v>20.384972423614</v>
       </c>
       <c r="R4">
-        <v>16.543029197721</v>
+        <v>183.464751812526</v>
       </c>
       <c r="S4">
-        <v>0.1344405532087315</v>
+        <v>0.0861056579860834</v>
       </c>
       <c r="T4">
-        <v>0.1344405532087315</v>
+        <v>0.08610565798608341</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33136881619231</v>
+        <v>1.446898</v>
       </c>
       <c r="H5">
-        <v>1.33136881619231</v>
+        <v>4.340694</v>
       </c>
       <c r="I5">
-        <v>0.6353435265636511</v>
+        <v>0.3770787376970584</v>
       </c>
       <c r="J5">
-        <v>0.6353435265636511</v>
+        <v>0.3770787376970584</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.88707748044849</v>
+        <v>9.918858999999999</v>
       </c>
       <c r="N5">
-        <v>7.88707748044849</v>
+        <v>29.756577</v>
       </c>
       <c r="O5">
-        <v>0.1343139536328738</v>
+        <v>0.160764128269069</v>
       </c>
       <c r="P5">
-        <v>0.1343139536328738</v>
+        <v>0.160764128269069</v>
       </c>
       <c r="Q5">
-        <v>10.50060900836173</v>
+        <v>14.351577249382</v>
       </c>
       <c r="R5">
-        <v>10.50060900836173</v>
+        <v>129.164195244438</v>
       </c>
       <c r="S5">
-        <v>0.08533550096781674</v>
+        <v>0.06062073455466853</v>
       </c>
       <c r="T5">
-        <v>0.08533550096781674</v>
+        <v>0.06062073455466853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33136881619231</v>
+        <v>1.446898</v>
       </c>
       <c r="H6">
-        <v>1.33136881619231</v>
+        <v>4.340694</v>
       </c>
       <c r="I6">
-        <v>0.6353435265636511</v>
+        <v>0.3770787376970584</v>
       </c>
       <c r="J6">
-        <v>0.6353435265636511</v>
+        <v>0.3770787376970584</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.1849552455542</v>
+        <v>29.20351433333333</v>
       </c>
       <c r="N6">
-        <v>29.1849552455542</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O6">
-        <v>0.4970087761082777</v>
+        <v>0.47332838627826</v>
       </c>
       <c r="P6">
-        <v>0.4970087761082777</v>
+        <v>0.4733283862782601</v>
       </c>
       <c r="Q6">
-        <v>38.85593931589904</v>
+        <v>42.25450648187134</v>
       </c>
       <c r="R6">
-        <v>38.85593931589904</v>
+        <v>380.290558336842</v>
       </c>
       <c r="S6">
-        <v>0.3157713085457172</v>
+        <v>0.1784820704139919</v>
       </c>
       <c r="T6">
-        <v>0.3157713085457172</v>
+        <v>0.178482070413992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.446898</v>
+      </c>
+      <c r="H7">
+        <v>4.340694</v>
+      </c>
+      <c r="I7">
+        <v>0.3770787376970584</v>
+      </c>
+      <c r="J7">
+        <v>0.3770787376970584</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.575837</v>
+      </c>
+      <c r="N7">
+        <v>67.72751099999999</v>
+      </c>
+      <c r="O7">
+        <v>0.3659074854526709</v>
+      </c>
+      <c r="P7">
+        <v>0.3659074854526709</v>
+      </c>
+      <c r="Q7">
+        <v>32.66493340362599</v>
+      </c>
+      <c r="R7">
+        <v>293.984400632634</v>
+      </c>
+      <c r="S7">
+        <v>0.1379759327283979</v>
+      </c>
+      <c r="T7">
+        <v>0.1379759327283979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.33136881619231</v>
-      </c>
-      <c r="H7">
-        <v>1.33136881619231</v>
-      </c>
-      <c r="I7">
-        <v>0.6353435265636511</v>
-      </c>
-      <c r="J7">
-        <v>0.6353435265636511</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>21.6491743200395</v>
-      </c>
-      <c r="N7">
-        <v>21.6491743200395</v>
-      </c>
-      <c r="O7">
-        <v>0.3686772702588486</v>
-      </c>
-      <c r="P7">
-        <v>0.3686772702588486</v>
-      </c>
-      <c r="Q7">
-        <v>28.82303558601195</v>
-      </c>
-      <c r="R7">
-        <v>28.82303558601195</v>
-      </c>
-      <c r="S7">
-        <v>0.2342367170501171</v>
-      </c>
-      <c r="T7">
-        <v>0.2342367170501171</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.487271</v>
+      </c>
+      <c r="H8">
+        <v>4.461812999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.3876004191680696</v>
+      </c>
+      <c r="J8">
+        <v>0.3876004191680697</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.918858999999999</v>
+      </c>
+      <c r="N8">
+        <v>29.756577</v>
+      </c>
+      <c r="O8">
+        <v>0.160764128269069</v>
+      </c>
+      <c r="P8">
+        <v>0.160764128269069</v>
+      </c>
+      <c r="Q8">
+        <v>14.752031343789</v>
+      </c>
+      <c r="R8">
+        <v>132.768282094101</v>
+      </c>
+      <c r="S8">
+        <v>0.06231224350428047</v>
+      </c>
+      <c r="T8">
+        <v>0.06231224350428047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.487271</v>
+      </c>
+      <c r="H9">
+        <v>4.461812999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.3876004191680696</v>
+      </c>
+      <c r="J9">
+        <v>0.3876004191680697</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>29.20351433333333</v>
+      </c>
+      <c r="N9">
+        <v>87.61054300000001</v>
+      </c>
+      <c r="O9">
+        <v>0.47332838627826</v>
+      </c>
+      <c r="P9">
+        <v>0.4733283862782601</v>
+      </c>
+      <c r="Q9">
+        <v>43.43353996605099</v>
+      </c>
+      <c r="R9">
+        <v>390.9018596944589</v>
+      </c>
+      <c r="S9">
+        <v>0.1834622809255996</v>
+      </c>
+      <c r="T9">
+        <v>0.1834622809255996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.487271</v>
+      </c>
+      <c r="H10">
+        <v>4.461812999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.3876004191680696</v>
+      </c>
+      <c r="J10">
+        <v>0.3876004191680697</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>22.575837</v>
+      </c>
+      <c r="N10">
+        <v>67.72751099999999</v>
+      </c>
+      <c r="O10">
+        <v>0.3659074854526709</v>
+      </c>
+      <c r="P10">
+        <v>0.3659074854526709</v>
+      </c>
+      <c r="Q10">
+        <v>33.57638767082699</v>
+      </c>
+      <c r="R10">
+        <v>302.1874890374429</v>
+      </c>
+      <c r="S10">
+        <v>0.1418258947381896</v>
+      </c>
+      <c r="T10">
+        <v>0.1418258947381896</v>
       </c>
     </row>
   </sheetData>
